--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail11 Features.xlsx
@@ -5918,7 +5918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5929,29 +5929,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5972,115 +5970,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6097,72 +6085,66 @@
         <v>1.444321452284791e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5135541847441312</v>
+        <v>5.655390691257718e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7636402107402835</v>
+        <v>5.59503631727681e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.655390691257718e-07</v>
+        <v>-0.04362032674195222</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.59503631727681e-06</v>
+        <v>0.135284549872025</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04362032674195222</v>
+        <v>0.02017799080469891</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.135284549872025</v>
+        <v>1.797281746887293</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02017799080469891</v>
+        <v>1.69955762574615</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.728467652158271</v>
+        <v>3.829561697332699</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.69955762574615</v>
+        <v>9.333379691796254e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.829561697332699</v>
+        <v>56897791.40702128</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.333379691796254e-15</v>
+        <v>2.07974589605549e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>56897791.40702128</v>
+        <v>30.21549763760951</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.07974589605549e-06</v>
+        <v>0.0001646255104554825</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>30.21549763760951</v>
+        <v>11.01950906036727</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001646255104554825</v>
+        <v>1.226134586564775</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.01950906036727</v>
+        <v>0.0199904065806207</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.226134586564775</v>
+        <v>2.948513771772928</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0199904065806207</v>
+        <v>0.9599633293961892</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.948513771772928</v>
+        <v>1.661968445879107</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9599633293961892</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.661968445879107</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2128228008381557</v>
       </c>
     </row>
@@ -6177,72 +6159,66 @@
         <v>1.376499889782908e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4765359599002176</v>
+        <v>4.938100593850616e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8213141047819779</v>
+        <v>5.589194410014612e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.938100593850616e-07</v>
+        <v>-0.03985572078606891</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.589194410014612e-06</v>
+        <v>0.1283973638461086</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03985572078606891</v>
+        <v>0.01806270995094129</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1283973638461086</v>
+        <v>1.807792791953929</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01806270995094129</v>
+        <v>1.997585553412935</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.74999826026908</v>
+        <v>3.787315444773443</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.997585553412935</v>
+        <v>9.265752171117329e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.787315444773443</v>
+        <v>54972612.71514096</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.265752171117329e-15</v>
+        <v>2.153519282424176e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>54972612.71514096</v>
+        <v>28.00099325017544</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.153519282424176e-06</v>
+        <v>0.000200166909554469</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>28.00099325017544</v>
+        <v>9.890538745865962</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000200166909554469</v>
+        <v>1.517041797032967</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.890538745865962</v>
+        <v>0.01958087888943014</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.517041797032967</v>
+        <v>2.899019703420199</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01958087888943014</v>
+        <v>0.9579615417732881</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.899019703420199</v>
+        <v>1.648315912517791</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9579615417732881</v>
+        <v>25</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.648315912517791</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2001084642453691</v>
       </c>
     </row>
@@ -6257,72 +6233,66 @@
         <v>1.32552493813115e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.484728646602609</v>
+        <v>4.541994136881746e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7636337794159487</v>
+        <v>5.583913777364189e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.541994136881746e-07</v>
+        <v>-0.03889429547230312</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.583913777364189e-06</v>
+        <v>0.1295592800309495</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03889429547230312</v>
+        <v>0.0182951706585774</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1295592800309495</v>
+        <v>1.8334662337122</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0182951706585774</v>
+        <v>1.697020288326771</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.785597768473459</v>
+        <v>4.161076108248654</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.697020288326771</v>
+        <v>7.675953218430487e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.161076108248654</v>
+        <v>65976136.53608655</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.675953218430487e-15</v>
+        <v>1.806587421175967e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>65976136.53608655</v>
+        <v>33.41227751276214</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.806587421175967e-06</v>
+        <v>0.0001630246759942189</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>33.41227751276214</v>
+        <v>9.458927225268447</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001630246759942189</v>
+        <v>1.431766406092461</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.458927225268447</v>
+        <v>0.01458603038661322</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.431766406092461</v>
+        <v>3.089961879869185</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01458603038661322</v>
+        <v>0.9583370793793349</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.089961879869185</v>
+        <v>1.654779770428312</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9583370793793349</v>
+        <v>25</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.654779770428312</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2260514495799405</v>
       </c>
     </row>
@@ -6337,72 +6307,66 @@
         <v>1.280144447038321e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5076377466225093</v>
+        <v>4.531154915720229e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6721400395976875</v>
+        <v>5.57873737144155e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.531154915720229e-07</v>
+        <v>-0.04118103722224453</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.57873737144155e-06</v>
+        <v>0.1342550031567223</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04118103722224453</v>
+        <v>0.01971962776914894</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1342550031567223</v>
+        <v>1.844061592132332</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01971962776914894</v>
+        <v>1.883478111514498</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.80972871882892</v>
+        <v>3.74328044544863</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.883478111514498</v>
+        <v>5.469031590188722e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.74328044544863</v>
+        <v>90659846.01208065</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.469031590188722e-15</v>
+        <v>1.310499104112548e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>90659846.01208065</v>
+        <v>44.95110644241273</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.310499104112548e-06</v>
+        <v>0.0001306611166813376</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>44.95110644241273</v>
+        <v>10.61167090050416</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001306611166813376</v>
+        <v>1.142815436790669</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.61167090050416</v>
+        <v>0.01471342944497723</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.142815436790669</v>
+        <v>3.065130702194894</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01471342944497723</v>
+        <v>0.9596916014328821</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.065130702194894</v>
+        <v>1.634912092783599</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9596916014328821</v>
+        <v>25</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.634912092783599</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.268292144919747</v>
       </c>
     </row>
@@ -6417,72 +6381,66 @@
         <v>1.231055461538494e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5187363741429748</v>
+        <v>4.531154915720229e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6055112922727299</v>
+        <v>5.573298157608694e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.531154915720229e-07</v>
+        <v>-0.04543215830044177</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.573298157608694e-06</v>
+        <v>0.1391632354907246</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04543215830044177</v>
+        <v>0.02143019329180812</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1391632354907246</v>
+        <v>1.855227268247081</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02143019329180812</v>
+        <v>2.016577647056002</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.826647446923538</v>
+        <v>3.793999963239137</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.016577647056002</v>
+        <v>5.323785123722627e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.793999963239137</v>
+        <v>91229314.51718929</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.323785123722627e-15</v>
+        <v>1.303129009739082e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>91229314.51718929</v>
+        <v>44.30873402275304</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.303129009739082e-06</v>
+        <v>0.0001235416497097504</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>44.30873402275304</v>
+        <v>10.86587173506122</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001235416497097504</v>
+        <v>1.155751392423586</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.86587173506122</v>
+        <v>0.01458621278080779</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.155751392423586</v>
+        <v>3.157519272683937</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01458621278080779</v>
+        <v>0.9600850004188349</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.157519272683937</v>
+        <v>1.577437534894208</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9600850004188349</v>
+        <v>21</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.577437534894208</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2812396215116389</v>
       </c>
     </row>
@@ -6497,72 +6455,66 @@
         <v>1.17681571006871e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5060107949954925</v>
+        <v>4.491359962256498e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6014211237965106</v>
+        <v>5.567626350198013e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.491359962256498e-07</v>
+        <v>-0.04842889195052691</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.567626350198013e-06</v>
+        <v>0.145523610663876</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04842889195052691</v>
+        <v>0.02352177091621277</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.145523610663876</v>
+        <v>1.857386731505837</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02352177091621277</v>
+        <v>1.876008490176787</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.831367666441271</v>
+        <v>3.815414164157049</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.876008490176787</v>
+        <v>5.264192811512902e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.815414164157049</v>
+        <v>91689868.00877373</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.264192811512902e-15</v>
+        <v>1.298987140508684e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>91689868.00877373</v>
+        <v>44.25623687027364</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.298987140508684e-06</v>
+        <v>0.0001337669404110232</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>44.25623687027364</v>
+        <v>10.48926164524888</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001337669404110232</v>
+        <v>1.348210159035361</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.48926164524888</v>
+        <v>0.01471765543122168</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.348210159035361</v>
+        <v>3.304538818461503</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01471765543122168</v>
+        <v>0.9607252685709624</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.304538818461503</v>
+        <v>1.575038578027534</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9607252685709624</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.575038578027534</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2948812339425534</v>
       </c>
     </row>
@@ -6577,72 +6529,66 @@
         <v>1.122538598936674e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4805376738793236</v>
+        <v>4.305472665368051e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6379752998122195</v>
+        <v>5.562006485285925e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.305472665368051e-07</v>
+        <v>-0.04900348223873992</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.562006485285925e-06</v>
+        <v>0.1517977540451155</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04900348223873992</v>
+        <v>0.02544144437218235</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1517977540451155</v>
+        <v>1.854505067749639</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02544144437218235</v>
+        <v>1.811828754810477</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.83042833231908</v>
+        <v>3.911294845128781</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.811828754810477</v>
+        <v>5.009265513259249e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.911294845128781</v>
+        <v>96329117.04061246</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.009265513259249e-15</v>
+        <v>1.234829547184511e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>96329117.04061246</v>
+        <v>46.48247141509372</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.234829547184511e-06</v>
+        <v>0.0001726793112522836</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>46.48247141509372</v>
+        <v>10.14360090354794</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001726793112522836</v>
+        <v>1.585894291791574</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.14360090354794</v>
+        <v>0.01776743008560604</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.585894291791574</v>
+        <v>3.202249692917468</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01776743008560604</v>
+        <v>0.9603144565441966</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.202249692917468</v>
+        <v>1.564493612268185</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9603144565441966</v>
+        <v>18</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.564493612268185</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3271005958052448</v>
       </c>
     </row>
@@ -6657,72 +6603,66 @@
         <v>1.072177848598682e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4574340567111221</v>
+        <v>4.082883958469892e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6709123309088447</v>
+        <v>5.556673657199005e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.082883958469892e-07</v>
+        <v>-0.04809554138613156</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.556673657199005e-06</v>
+        <v>0.1576878138607577</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04809554138613156</v>
+        <v>0.02717659951025513</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1576878138607577</v>
+        <v>1.84925015109535</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02717659951025513</v>
+        <v>1.823903003801437</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.83059312437229</v>
+        <v>3.891741276597529</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.823903003801437</v>
+        <v>4.656931776415269e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.891741276597529</v>
+        <v>105281943.8228166</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.656931776415269e-15</v>
+        <v>1.128891219708345e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>105281943.8228166</v>
+        <v>51.61877158628979</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.128891219708345e-06</v>
+        <v>0.0001680480867902739</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>51.61877158628979</v>
+        <v>10.64356932073353</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001680480867902739</v>
+        <v>1.395033269589207</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.64356932073353</v>
+        <v>0.01903742294406763</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.395033269589207</v>
+        <v>3.200007495544726</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01903742294406763</v>
+        <v>0.961757679427815</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.200007495544726</v>
+        <v>1.544388002232493</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.961757679427815</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.544388002232493</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4342848886479018</v>
       </c>
     </row>
@@ -6737,72 +6677,66 @@
         <v>1.024809919389639e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4350114977601521</v>
+        <v>3.925747209757405e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6980910196310375</v>
+        <v>5.551696022411607e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.925747209757405e-07</v>
+        <v>-0.04688154127333959</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.551696022411607e-06</v>
+        <v>0.1649195460759184</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04688154127333959</v>
+        <v>0.0293954166493663</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1649195460759184</v>
+        <v>1.844147630512295</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0293954166493663</v>
+        <v>1.824297411290722</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.82833453004617</v>
+        <v>3.977671630061258</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.824297411290722</v>
+        <v>4.633878725815474e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.977671630061258</v>
+        <v>105273004.7762365</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.633878725815474e-15</v>
+        <v>1.128366767906815e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>105273004.7762365</v>
+        <v>51.35452323772381</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.128366767906815e-06</v>
+        <v>0.0001679253631251096</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>51.35452323772381</v>
+        <v>12.61437037976648</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001679253631251096</v>
+        <v>1.021511848128911</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.61437037976648</v>
+        <v>0.02672067673890356</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.021511848128911</v>
+        <v>2.875533029187029</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02672067673890356</v>
+        <v>0.9608928307600644</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.875533029187029</v>
+        <v>1.603338577049574</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9608928307600644</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.603338577049574</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.553357541268069</v>
       </c>
     </row>
@@ -6817,72 +6751,66 @@
         <v>9.765867105138274e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3940823875381852</v>
+        <v>3.859418699176358e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7644671557510536</v>
+        <v>5.547055575267835e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.859418699176358e-07</v>
+        <v>-0.04566145528831197</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.547055575267835e-06</v>
+        <v>0.1748238061223135</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04566145528831197</v>
+        <v>0.03264591604739762</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1748238061223135</v>
+        <v>1.888140178053263</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03264591604739762</v>
+        <v>1.812400947029027</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.891383523914873</v>
+        <v>4.04296693254318</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.812400947029027</v>
+        <v>4.614703949014783e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.04296693254318</v>
+        <v>104776543.8761342</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.614703949014783e-15</v>
+        <v>1.145971201238165e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>104776543.8761342</v>
+        <v>50.66079285221638</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.145971201238165e-06</v>
+        <v>0.0001991983039404804</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>50.66079285221638</v>
+        <v>12.95344483029273</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001991983039404804</v>
+        <v>1.012612464235357</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.95344483029273</v>
+        <v>0.03342382862314434</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.012612464235357</v>
+        <v>2.602431609625701</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03342382862314434</v>
+        <v>0.9600720655962661</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.602431609625701</v>
+        <v>1.432101454228781</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9600720655962661</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.432101454228781</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5570896825872577</v>
       </c>
     </row>
@@ -6897,72 +6825,66 @@
         <v>9.268523400303025e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3187508955940785</v>
+        <v>3.715602036993745e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9086641487085902</v>
+        <v>5.542873357518009e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.715602036993745e-07</v>
+        <v>-0.04136983881702167</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.542873357518009e-06</v>
+        <v>0.1875037289464936</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04136983881702167</v>
+        <v>0.03685971718763138</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1875037289464936</v>
+        <v>1.900528041970031</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03685971718763138</v>
+        <v>1.953825555802524</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.912616656427578</v>
+        <v>4.406020838562652</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.953825555802524</v>
+        <v>3.77673907141676e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.406020838562652</v>
+        <v>128328531.4248458</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.77673907141676e-15</v>
+        <v>9.362426486786855e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>128328531.4248458</v>
+        <v>62.19613961239303</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.362426486786855e-07</v>
+        <v>0.0002174302347614793</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>62.19613961239303</v>
+        <v>12.64274155604606</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002174302347614793</v>
+        <v>1.067764272168338</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.64274155604606</v>
+        <v>0.03475381260655806</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.067764272168338</v>
+        <v>2.550992966989549</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03475381260655806</v>
+        <v>0.9595432685360472</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.550992966989549</v>
+        <v>1.340418658026342</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9595432685360472</v>
+        <v>15</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.340418658026342</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5842639166675907</v>
       </c>
     </row>
@@ -6977,72 +6899,66 @@
         <v>8.819890243096586e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2246878610709457</v>
+        <v>3.455916396834501e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.074218197447316</v>
+        <v>5.539517354772802e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.455916396834501e-07</v>
+        <v>-0.03192241203616758</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.539517354772802e-06</v>
+        <v>0.2023256896418353</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03192241203616758</v>
+        <v>0.04193266579612399</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2023256896418353</v>
+        <v>1.902091653169008</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04193266579612399</v>
+        <v>1.755328293065694</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.920473585174135</v>
+        <v>4.844500551032936</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.755328293065694</v>
+        <v>4.059901832984762e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.844500551032936</v>
+        <v>112554525.8683192</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.059901832984762e-15</v>
+        <v>1.06634914979326e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>112554525.8683192</v>
+        <v>51.43295282045217</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.06634914979326e-06</v>
+        <v>0.0002272725973105056</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>51.43295282045217</v>
+        <v>11.56856143320713</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002272725973105056</v>
+        <v>1.222558213919097</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.56856143320713</v>
+        <v>0.03041625843282969</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.222558213919097</v>
+        <v>2.617207026148572</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03041625843282969</v>
+        <v>0.9587828856518974</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.617207026148572</v>
+        <v>1.285597093219642</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9587828856518974</v>
+        <v>15</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.285597093219642</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6164133312659171</v>
       </c>
     </row>
@@ -7057,72 +6973,66 @@
         <v>8.494135764077696e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1343835933585467</v>
+        <v>3.152162936365382e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.210522065238983</v>
+        <v>5.53735395940256e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.152162936365382e-07</v>
+        <v>-0.01707459482514651</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.53735395940256e-06</v>
+        <v>0.2214039897097093</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01707459482514651</v>
+        <v>0.04926869058915537</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2214039897097093</v>
+        <v>1.902502000885478</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04926869058915537</v>
+        <v>1.704070828269781</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.919205341403129</v>
+        <v>5.295213112377891</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.704070828269781</v>
+        <v>3.748209537492568e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.295213112377891</v>
+        <v>120418756.5911781</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.748209537492568e-15</v>
+        <v>9.986462722191266e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>120418756.5911781</v>
+        <v>54.35157560272863</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.986462722191266e-07</v>
+        <v>0.0002163981256892558</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>54.35157560272863</v>
+        <v>12.56105589798753</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002163981256892558</v>
+        <v>1.13862081108528</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.56105589798753</v>
+        <v>0.03414332337995624</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.13862081108528</v>
+        <v>2.81734128885019</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03414332337995624</v>
+        <v>0.9594710547968401</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.81734128885019</v>
+        <v>1.280469238898037</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9594710547968401</v>
+        <v>15</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.280469238898037</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.8798073955302348</v>
       </c>
     </row>
@@ -7137,72 +7047,66 @@
         <v>8.389465156138968e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.09653926792566646</v>
+        <v>3.011351367838095e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.269340185811187</v>
+        <v>5.536733454002908e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.011351367838095e-07</v>
+        <v>0.003302014177849255</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.536733454002908e-06</v>
+        <v>0.2472242298210573</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.003302014177849255</v>
+        <v>0.06105613101407432</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2472242298210573</v>
+        <v>1.902228512408432</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.06105613101407432</v>
+        <v>1.73319203342284</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.921243861801812</v>
+        <v>4.313632719653038</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.73319203342284</v>
+        <v>4.790861924811435e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.313632719653038</v>
+        <v>92339003.35182703</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.790861924811435e-15</v>
+        <v>1.304014751903786e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>92339003.35182703</v>
+        <v>40.84924367125461</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.304014751903786e-06</v>
+        <v>0.0002156883032210891</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>40.84924367125461</v>
+        <v>14.30008543797749</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002156883032210891</v>
+        <v>1.057673739489421</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>14.30008543797749</v>
+        <v>0.04410662816726547</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.057673739489421</v>
+        <v>2.860626946527333</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04410662816726547</v>
+        <v>0.9581379126565038</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.860626946527333</v>
+        <v>1.287975277740956</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9581379126565038</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.287975277740956</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.9182291213677145</v>
       </c>
     </row>
@@ -7217,72 +7121,66 @@
         <v>8.66066680628071e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.241642453076282</v>
+        <v>3.96272957223825e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9102252986659369</v>
+        <v>5.538016663747113e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.96272957223825e-07</v>
+        <v>0.02706809190680825</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.538016663747113e-06</v>
+        <v>0.2738399875543968</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02706809190680825</v>
+        <v>0.07562262241466841</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2738399875543968</v>
+        <v>1.876829353688971</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.07562262241466841</v>
+        <v>1.777680892342432</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.886055129723639</v>
+        <v>3.692972137965171</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.777680892342432</v>
+        <v>4.91229356446482e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.692972137965171</v>
+        <v>85665173.6842311</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.91229356446482e-15</v>
+        <v>1.379775186905753e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>85665173.6842311</v>
+        <v>36.04897430657896</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.379775186905753e-06</v>
+        <v>0.00020316081597319</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>36.04897430657896</v>
+        <v>13.93039507018076</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.00020316081597319</v>
+        <v>0.9691094324063195</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.93039507018076</v>
+        <v>0.03942455637220436</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.9691094324063195</v>
+        <v>2.582202472641682</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03942455637220436</v>
+        <v>0.9592846128100737</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.582202472641682</v>
+        <v>1.33068765773456</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9592846128100737</v>
+        <v>13</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.33068765773456</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.6076121703379945</v>
       </c>
     </row>
@@ -7297,72 +7195,66 @@
         <v>9.455431184278491e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6721637228447906</v>
+        <v>4.958049751941979e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.4414291011922509</v>
+        <v>5.541429182828931e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.958049751941979e-07</v>
+        <v>0.04707066317608722</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.541429182828931e-06</v>
+        <v>0.2800647021587474</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04707066317608722</v>
+        <v>0.08058596224539238</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2800647021587474</v>
+        <v>1.813833401121564</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.08058596224539238</v>
+        <v>1.807050199239078</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.79148369015556</v>
+        <v>5.397057085946771</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.807050199239078</v>
+        <v>7.577790895213357e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.397057085946771</v>
+        <v>56745740.75787753</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.577790895213357e-15</v>
+        <v>2.051220579290834e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>56745740.75787753</v>
+        <v>24.40108604159436</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.051220579290834e-06</v>
+        <v>0.0002064861577367747</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>24.40108604159436</v>
+        <v>10.33844492977057</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002064861577367747</v>
+        <v>1.339078938235959</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.33844492977057</v>
+        <v>0.02206995158759783</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.339078938235959</v>
+        <v>2.69365699579409</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02206995158759783</v>
+        <v>0.9578228811739053</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.69365699579409</v>
+        <v>1.665737590357941</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9578228811739053</v>
+        <v>1</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.665737590357941</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3429204837359204</v>
       </c>
     </row>
@@ -7377,72 +7269,66 @@
         <v>1.071238448243843e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.177738005337111</v>
+        <v>5.724348522630245e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.116506943575246</v>
+        <v>5.546774567049649e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.724348522630245e-07</v>
+        <v>0.05737813001073705</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.546774567049649e-06</v>
+        <v>0.2593398510951516</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.05737813001073705</v>
+        <v>0.07052704056182287</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2593398510951516</v>
+        <v>1.783899062570765</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.07052704056182287</v>
+        <v>1.588741233157155</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.746336418882475</v>
+        <v>4.777892730347501</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.588741233157155</v>
+        <v>1.862390698904867e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.777892730347501</v>
+        <v>23521491.45215663</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.862390698904867e-14</v>
+        <v>4.916487395763571e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>23521491.45215663</v>
+        <v>10.3038732126423</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.916487395763571e-06</v>
+        <v>0.0002404704113493411</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>10.3038732126423</v>
+        <v>8.977598369545698</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002404704113493411</v>
+        <v>1.877097640772035</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.977598369545698</v>
+        <v>0.01938125926807151</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.877097640772035</v>
+        <v>2.675218006331434</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01938125926807151</v>
+        <v>0.9567585194797723</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.675218006331434</v>
+        <v>1.695217171250506</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9567585194797723</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.695217171250506</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1771286086485052</v>
       </c>
     </row>
@@ -7457,72 +7343,66 @@
         <v>1.216948520398735e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.496530464678421</v>
+        <v>6.143733239635206e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.931725865711774</v>
+        <v>5.553510213181365e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.143733239635206e-07</v>
+        <v>0.05950912210491765</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5.553510213181365e-06</v>
+        <v>0.2291945271390973</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.05950912210491765</v>
+        <v>0.05606563331896451</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2291945271390973</v>
+        <v>1.762699717428629</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.05606563331896451</v>
+        <v>1.593952454483244</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.714017477544968</v>
+        <v>4.016387604288801</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.593952454483244</v>
+        <v>2.635556604327762e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.016387604288801</v>
+        <v>17514017.54720286</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.635556604327762e-14</v>
+        <v>6.577177740593252e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>17514017.54720286</v>
+        <v>8.084327693089328</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.577177740593252e-06</v>
+        <v>0.0001993611416106442</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8.084327693089328</v>
+        <v>9.677161630319281</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001993611416106442</v>
+        <v>1.438763825539198</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.677161630319281</v>
+        <v>0.01866966398017835</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.438763825539198</v>
+        <v>2.672836090810363</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01866966398017835</v>
+        <v>0.9572011015957269</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.672836090810363</v>
+        <v>1.715949653029195</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9572011015957269</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.715949653029195</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1501667120935664</v>
       </c>
     </row>
@@ -7537,72 +7417,66 @@
         <v>1.361993855290141e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.618775783764418</v>
+        <v>6.399982576582976e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.926580723540214</v>
+        <v>5.561168498235865e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.399982576582976e-07</v>
+        <v>0.05916567398659262</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.561168498235865e-06</v>
+        <v>0.2033810301713638</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.05916567398659262</v>
+        <v>0.04486092729571588</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2033810301713638</v>
+        <v>1.739611063852651</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04486092729571588</v>
+        <v>1.598088658300662</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.676938246888991</v>
+        <v>3.972591871682846</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.598088658300662</v>
+        <v>2.693988173545413e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.972591871682846</v>
+        <v>17265244.17266527</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.693988173545413e-14</v>
+        <v>6.633372859306444e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>17265244.17266527</v>
+        <v>8.030473148527234</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.633372859306444e-06</v>
+        <v>0.0001789299191443067</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8.030473148527234</v>
+        <v>10.8624260675151</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001789299191443067</v>
+        <v>1.102282305921442</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.8624260675151</v>
+        <v>0.02111235271157518</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.102282305921442</v>
+        <v>2.502131727455563</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02111235271157518</v>
+        <v>0.9554365387508656</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.502131727455563</v>
+        <v>1.762506807666979</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9554365387508656</v>
+        <v>4</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.762506807666979</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1573614164805763</v>
       </c>
     </row>
@@ -7617,72 +7491,66 @@
         <v>1.501636153220105e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.633976501599792</v>
+        <v>6.628844660363379e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.584765968843328</v>
+        <v>5.569616976750664e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.628844660363379e-07</v>
+        <v>0.05874521142151855</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5.569616976750664e-06</v>
+        <v>0.1829120621947424</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.05874521142151855</v>
+        <v>0.03690567617947935</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1829120621947424</v>
+        <v>1.726746741038707</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03690567617947935</v>
+        <v>1.607377006788912</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.662838029921685</v>
+        <v>3.946277840702815</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.607377006788912</v>
+        <v>2.730035324607132e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.946277840702815</v>
+        <v>16990575.40726199</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.730035324607132e-14</v>
+        <v>6.698936966893937e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>16990575.40726199</v>
+        <v>7.881056492840245</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.698936966893937e-06</v>
+        <v>0.0001779520748155169</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7.881056492840245</v>
+        <v>10.87717195350995</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001779520748155169</v>
+        <v>1.119038410190542</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.87717195350995</v>
+        <v>0.02105402064160038</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.119038410190542</v>
+        <v>2.381908907634026</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02105402064160038</v>
+        <v>0.9552384900082818</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.381908907634026</v>
+        <v>1.753145314773007</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9552384900082818</v>
+        <v>9</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.753145314773007</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1621223157427236</v>
       </c>
     </row>
@@ -7697,72 +7565,66 @@
         <v>1.634042973017352e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.595289877692782</v>
+        <v>6.808504864135552e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.140662011719607</v>
+        <v>5.578774908127042e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.808504864135552e-07</v>
+        <v>0.05804820181364746</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5.578774908127042e-06</v>
+        <v>0.1664393500334327</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05804820181364746</v>
+        <v>0.03107011934482361</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1664393500334327</v>
+        <v>1.720703862473811</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03107011934482361</v>
+        <v>1.612992269709841</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.651818374572918</v>
+        <v>3.930479699476957</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.612992269709841</v>
+        <v>2.752025597590984e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.930479699476957</v>
+        <v>17662438.87400626</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.752025597590984e-14</v>
+        <v>6.473042984869431e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>17662438.87400626</v>
+        <v>8.585267131526784</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.473042984869431e-06</v>
+        <v>0.00016458398363958</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>8.585267131526784</v>
+        <v>9.581567684886666</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.00016458398363958</v>
+        <v>1.185414309015359</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.581567684886666</v>
+        <v>0.0151098695037699</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.185414309015359</v>
+        <v>2.630007650654645</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0151098695037699</v>
+        <v>0.9541883409482739</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.630007650654645</v>
+        <v>1.765465009183536</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9541883409482739</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.765465009183536</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.162746469890907</v>
       </c>
     </row>
@@ -7777,72 +7639,66 @@
         <v>1.759727584784553e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.533249035239745</v>
+        <v>7.04526533965323e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.702143342059316</v>
+        <v>5.588620378428814e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>7.04526533965323e-07</v>
+        <v>0.0580933165547385</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.588620378428814e-06</v>
+        <v>0.15328123109048</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.0580933165547385</v>
+        <v>0.02686817477895605</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.15328123109048</v>
+        <v>1.696729698122091</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02686817477895605</v>
+        <v>1.603961026536811</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.623189192598725</v>
+        <v>3.904941932473956</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.603961026536811</v>
+        <v>2.788139016055449e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.904941932473956</v>
+        <v>17732123.73660496</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.788139016055449e-14</v>
+        <v>6.383098335229636e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>17732123.73660496</v>
+        <v>8.766695662120132</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.383098335229636e-06</v>
+        <v>0.0001603315682605865</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>8.766695662120132</v>
+        <v>7.982558598510608</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001603315682605865</v>
+        <v>1.50544501429763</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.982558598510608</v>
+        <v>0.01021652662588386</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.50544501429763</v>
+        <v>2.885032988276425</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01021652662588386</v>
+        <v>0.9534471628713163</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.885032988276425</v>
+        <v>1.763350080850633</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9534471628713163</v>
+        <v>11</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.763350080850633</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1570456629794968</v>
       </c>
     </row>
@@ -7857,72 +7713,66 @@
         <v>1.880225844671377e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.464001038711626</v>
+        <v>7.211052668800766e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.309318388794493</v>
+        <v>5.599174321214461e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.211052668800766e-07</v>
+        <v>0.05752853634150591</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.599174321214461e-06</v>
+        <v>0.1421322180835652</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05752853634150591</v>
+        <v>0.02351086007945864</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1421322180835652</v>
+        <v>1.665109392860949</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02351086007945864</v>
+        <v>1.583611700275781</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.578721575866005</v>
+        <v>3.692079231085857</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.583611700275781</v>
+        <v>3.11890078416926e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.692079231085857</v>
+        <v>15700599.40131898</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.11890078416926e-14</v>
+        <v>7.149915778763668e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>15700599.40131898</v>
+        <v>7.688365568703011</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.149915778763668e-06</v>
+        <v>0.000154809864616156</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.688365568703011</v>
+        <v>8.519557507273026</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.000154809864616156</v>
+        <v>1.429077403783588</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.519557507273026</v>
+        <v>0.01123654274858913</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.429077403783588</v>
+        <v>2.942212740234327</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01123654274858913</v>
+        <v>0.9520106563797132</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.942212740234327</v>
+        <v>1.788970579274545</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9520106563797132</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.788970579274545</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1631388506186233</v>
       </c>
     </row>
@@ -7937,72 +7787,66 @@
         <v>1.988276608962994e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.384312254028038</v>
+        <v>7.216914213004692e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.9296392797440447</v>
+        <v>5.610131942342249e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>7.216914213004692e-07</v>
+        <v>0.05555769077543862</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.610131942342249e-06</v>
+        <v>0.1335030759925296</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05555769077543862</v>
+        <v>0.02090950879750903</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1335030759925296</v>
+        <v>1.661647470363363</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02090950879750903</v>
+        <v>1.574738811335346</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.571261368337324</v>
+        <v>3.63085989620475</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.574738811335346</v>
+        <v>3.22496200167808e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.63085989620475</v>
+        <v>15358445.92929852</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.22496200167808e-14</v>
+        <v>7.292099173937677e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>15358445.92929852</v>
+        <v>7.607100397813725</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.292099173937677e-06</v>
+        <v>0.0001580134299598079</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.607100397813725</v>
+        <v>10.67622635812969</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001580134299598079</v>
+        <v>1.171410355960237</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.67622635812969</v>
+        <v>0.01801065663262071</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.171410355960237</v>
+        <v>2.735835395803579</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01801065663262071</v>
+        <v>0.9520346874878625</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.735835395803579</v>
+        <v>1.775589009521091</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9520346874878625</v>
+        <v>11</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.775589009521091</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1733478922523531</v>
       </c>
     </row>
@@ -8017,72 +7861,66 @@
         <v>2.078906132107578e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.296465723545013</v>
+        <v>7.216914213004692e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.5654102269046142</v>
+        <v>5.621199333457897e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.216914213004692e-07</v>
+        <v>0.05316081877197772</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.621199333457897e-06</v>
+        <v>0.1276666653363927</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05316081877197772</v>
+        <v>0.01912437827496489</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1276666653363927</v>
+        <v>1.659071966777555</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01912437827496489</v>
+        <v>1.580924980743574</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.568715999471517</v>
+        <v>3.658822839154085</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.580924980743574</v>
+        <v>3.175856139232097e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.658822839154085</v>
+        <v>15606917.25296101</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.175856139232097e-14</v>
+        <v>7.149828709002126e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>15606917.25296101</v>
+        <v>7.735619098519464</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.149828709002126e-06</v>
+        <v>0.00015773518932394</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7.735619098519464</v>
+        <v>10.66250492595873</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.00015773518932394</v>
+        <v>1.185615109920682</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.66250492595873</v>
+        <v>0.01793275772084097</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.185615109920682</v>
+        <v>2.720704627524619</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01793275772084097</v>
+        <v>0.951297785645343</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.720704627524619</v>
+        <v>1.811565639865637</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.951297785645343</v>
+        <v>11</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.811565639865637</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1759156485705647</v>
       </c>
     </row>
@@ -8097,72 +7935,66 @@
         <v>2.151323591976714e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.206219031016939</v>
+        <v>7.216914213004692e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.2330362350395747</v>
+        <v>5.632200467144756e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.216914213004692e-07</v>
+        <v>0.05082142256395115</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.632200467144756e-06</v>
+        <v>0.1239423848574265</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05082142256395115</v>
+        <v>0.01794408122622044</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1239423848574265</v>
+        <v>1.654756724319134</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01794408122622044</v>
+        <v>1.555387271069713</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.565652112334794</v>
+        <v>3.721240276739283</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.555387271069713</v>
+        <v>3.070210540848758e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.721240276739283</v>
+        <v>16153428.1376895</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.070210540848758e-14</v>
+        <v>6.905283070811449e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>16153428.1376895</v>
+        <v>8.01119985746406</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.905283070811449e-06</v>
+        <v>0.0001399649561795092</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.01119985746406</v>
+        <v>9.13632341555294</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001399649561795092</v>
+        <v>1.258758870234711</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.13632341555294</v>
+        <v>0.01168321158550517</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.258758870234711</v>
+        <v>2.956701267190695</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01168321158550517</v>
+        <v>0.9507634337301106</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.956701267190695</v>
+        <v>1.806669445271477</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9507634337301106</v>
+        <v>16</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.806669445271477</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1833802268911014</v>
       </c>
     </row>
@@ -8177,72 +8009,66 @@
         <v>2.207415531496184e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.118469492214929</v>
+        <v>7.216914213004692e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.05829965449426355</v>
+        <v>5.643076346475591e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.216914213004692e-07</v>
+        <v>0.04902293343207013</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.643076346475591e-06</v>
+        <v>0.1212772817734439</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04902293343207013</v>
+        <v>0.01711130998980841</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1212772817734439</v>
+        <v>1.651335937239199</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01711130998980841</v>
+        <v>1.529421869431799</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.563424114824664</v>
+        <v>3.822217578353005</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.529421869431799</v>
+        <v>2.910132567712565e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.822217578353005</v>
+        <v>17036619.03732878</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.910132567712565e-14</v>
+        <v>6.531778574127382e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>17036619.03732878</v>
+        <v>8.44655467028911</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.531778574127382e-06</v>
+        <v>0.0001256033474884651</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.44655467028911</v>
+        <v>7.487176589105168</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001256033474884651</v>
+        <v>1.382875408303023</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.487176589105168</v>
+        <v>0.007041049000404748</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.382875408303023</v>
+        <v>3.16549042267928</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007041049000404748</v>
+        <v>0.9505622868061073</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.16549042267928</v>
+        <v>1.785622438185581</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9505622868061073</v>
+        <v>16</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.785622438185581</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1920970857369937</v>
       </c>
     </row>
@@ -8257,72 +8083,66 @@
         <v>2.25062199520293e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.036019057997405</v>
+        <v>7.216914213004692e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.3091046201320333</v>
+        <v>5.653869502187274e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.216914213004692e-07</v>
+        <v>0.0478582665289766</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.653869502187274e-06</v>
+        <v>0.1191274960990971</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.0478582665289766</v>
+        <v>0.01648193589193508</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1191274960990971</v>
+        <v>1.658046918441612</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01648193589193508</v>
+        <v>1.510212802138457</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.573902956332864</v>
+        <v>4.016962818032068</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.510212802138457</v>
+        <v>2.634801855077979e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.016962818032068</v>
+        <v>19187037.82939127</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.634801855077979e-14</v>
+        <v>5.829500707954172e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>19187037.82939127</v>
+        <v>9.699823329049694</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.829500707954172e-06</v>
+        <v>0.0001156250408458647</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>9.699823329049694</v>
+        <v>7.22188997197699</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001156250408458647</v>
+        <v>1.393868283533516</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.22188997197699</v>
+        <v>0.00603050433781835</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.393868283533516</v>
+        <v>3.242339212324922</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.00603050433781835</v>
+        <v>0.9519374813860612</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.242339212324922</v>
+        <v>1.814042213713598</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9519374813860612</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.814042213713598</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.210796779634523</v>
       </c>
     </row>
@@ -8337,72 +8157,66 @@
         <v>2.284587255797092e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.9594870503276016</v>
+        <v>7.216914213004692e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.5256820621048832</v>
+        <v>5.664656198582289e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.216914213004692e-07</v>
+        <v>0.04736366177374333</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.664656198582289e-06</v>
+        <v>0.1172526902932564</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04736366177374333</v>
+        <v>0.01599177074718483</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1172526902932564</v>
+        <v>1.657613690550818</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01599177074718483</v>
+        <v>1.501094855483597</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.571232828163937</v>
+        <v>4.247604408130634</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.501094855483597</v>
+        <v>2.271699614204556e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.247604408130634</v>
+        <v>22294508.78162748</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.271699614204556e-14</v>
+        <v>5.016234829912243e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>22294508.78162748</v>
+        <v>11.29137211467267</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.016234829912243e-06</v>
+        <v>0.0001237324920668902</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.29137211467267</v>
+        <v>9.585081028733248</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001237324920668902</v>
+        <v>1.387205375972324</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.585081028733248</v>
+        <v>0.01136777154804802</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.387205375972324</v>
+        <v>3.122035018907833</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01136777154804802</v>
+        <v>0.9514916024864132</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.122035018907833</v>
+        <v>1.808868437481573</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9514916024864132</v>
+        <v>16</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.808868437481573</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.222335423793845</v>
       </c>
     </row>
@@ -8417,72 +8231,66 @@
         <v>2.31353720000556e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.8883809862791613</v>
+        <v>7.213900710560207e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7152350143937451</v>
+        <v>5.675562446050499e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.213900710560207e-07</v>
+        <v>0.04761148158885069</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.675562446050499e-06</v>
+        <v>0.1156175511621922</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.04761148158885069</v>
+        <v>0.01563417233485206</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1156175511621922</v>
+        <v>1.671153494696814</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01563417233485206</v>
+        <v>1.595942041392235</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.591911679016539</v>
+        <v>3.835802200416111</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.595942041392235</v>
+        <v>2.137350804348005e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.835802200416111</v>
+        <v>23314404.40961733</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.137350804348005e-14</v>
+        <v>4.815855702529828e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>23314404.40961733</v>
+        <v>11.6178150872908</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.815855702529828e-06</v>
+        <v>0.0001386770763669128</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>11.6178150872908</v>
+        <v>10.79693457519309</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001386770763669128</v>
+        <v>1.290984484493521</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.79693457519309</v>
+        <v>0.01616611324092054</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.290984484493521</v>
+        <v>3.055323960208379</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01616611324092054</v>
+        <v>0.951043820043736</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.055323960208379</v>
+        <v>1.766371838140083</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.951043820043736</v>
+        <v>16</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.766371838140083</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2160859994398975</v>
       </c>
     </row>
@@ -8497,72 +8305,66 @@
         <v>2.342178981218176e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.8217337364540163</v>
+        <v>7.162359349420676e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8823048390582455</v>
+        <v>5.686724739366566e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.162359349420676e-07</v>
+        <v>0.04825347975064044</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.686724739366566e-06</v>
+        <v>0.1143202509467744</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.04825347975064044</v>
+        <v>0.01539720195530093</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1143202509467744</v>
+        <v>1.695819780482624</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01539720195530093</v>
+        <v>1.685069123066698</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.613255977183957</v>
+        <v>3.797018881902933</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.685069123066698</v>
+        <v>2.181236232997573e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.797018881902933</v>
+        <v>24320603.52689111</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.181236232997573e-14</v>
+        <v>4.657135889145227e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>24320603.52689111</v>
+        <v>12.90183249515109</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.657135889145227e-06</v>
+        <v>0.0001097040835296717</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>12.90183249515109</v>
+        <v>9.868405601643879</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001097040835296717</v>
+        <v>1.320240895401101</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.868405601643879</v>
+        <v>0.01068357925059502</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.320240895401101</v>
+        <v>3.297133542891035</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01068357925059502</v>
+        <v>0.9528123888130658</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.297133542891035</v>
+        <v>1.736417549136297</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9528123888130658</v>
+        <v>20</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.736417549136297</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2438562752650213</v>
       </c>
     </row>
@@ -8939,7 +8741,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.791384885553788</v>
+        <v>1.818646722072587</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.78668748226661</v>
@@ -9028,7 +8830,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.799694813452192</v>
+        <v>1.822080590846928</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.601113485973228</v>
@@ -9117,7 +8919,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.808931579282784</v>
+        <v>1.831050404633015</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.771860650113486</v>
@@ -9206,7 +9008,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.819592458576684</v>
+        <v>1.851226057626591</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.609660449651142</v>
@@ -9295,7 +9097,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.87102618020655</v>
+        <v>1.896560672410549</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.701368021150353</v>
@@ -9384,7 +9186,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.872460061554777</v>
+        <v>1.898225154941736</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.932606524703656</v>
@@ -9473,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.874059902401549</v>
+        <v>1.897032545157405</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.840606002232826</v>
@@ -9562,7 +9364,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.923567897137789</v>
+        <v>1.941725724942913</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.806134119083038</v>
@@ -9651,7 +9453,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.925800830623458</v>
+        <v>1.945153057105061</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.828282437509109</v>
@@ -9740,7 +9542,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.87077381414625</v>
+        <v>1.89655084402183</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.135499391248806</v>
@@ -9829,7 +9631,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.868465794794392</v>
+        <v>1.893685450880163</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.92451438262735</v>
@@ -9918,7 +9720,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.867701916546996</v>
+        <v>1.894769702199175</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.962330448203375</v>
@@ -10007,7 +9809,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.863755115299907</v>
+        <v>1.882395864365458</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.898869189567279</v>
@@ -10096,7 +9898,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.86622735886147</v>
+        <v>1.885404417087082</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.84391893695455</v>
@@ -10185,7 +9987,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.865883642732694</v>
+        <v>1.883798339934347</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.991679317202697</v>
@@ -10274,7 +10076,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.872076465488274</v>
+        <v>1.887203115002911</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.690952995625006</v>
@@ -10363,7 +10165,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.887333614319633</v>
+        <v>1.903260502869442</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.171024214709599</v>
@@ -10452,7 +10254,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.886068338441047</v>
+        <v>1.900756299853185</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.973523843012681</v>
@@ -10541,7 +10343,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.887299449265843</v>
+        <v>1.899433991628087</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.769605365067352</v>
@@ -10630,7 +10432,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.879398138069636</v>
+        <v>1.893711688885733</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.980021583525329</v>
@@ -10719,7 +10521,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.874263140509166</v>
+        <v>1.888930605055192</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.952883574515204</v>
@@ -10808,7 +10610,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.872674367090982</v>
+        <v>1.88261181537538</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.870570909533788</v>
@@ -10897,7 +10699,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.87087743828236</v>
+        <v>1.875738648268052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.058319554890545</v>
@@ -10986,7 +10788,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.873614728525552</v>
+        <v>1.880203701246841</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.733801665646526</v>
@@ -11075,7 +10877,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.919588397104555</v>
+        <v>1.916364340164498</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.038572700118021</v>
@@ -11164,7 +10966,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.924025912676866</v>
+        <v>1.92129214259583</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.351422403495908</v>
@@ -11253,7 +11055,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.924820223186973</v>
+        <v>1.915517201574472</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.467439013794205</v>
@@ -11342,7 +11144,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.924327143706255</v>
+        <v>1.921826151913615</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.573889000083755</v>
@@ -11431,7 +11233,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.918455799932326</v>
+        <v>1.913118999145043</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.744172134930268</v>
@@ -11520,7 +11322,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.886252716924178</v>
+        <v>1.889120851754857</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.317600011180266</v>
@@ -11609,7 +11411,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.883813186880296</v>
+        <v>1.885231021594702</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.052206806047467</v>
@@ -11698,7 +11500,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.888488488005907</v>
+        <v>1.891717646374147</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.999875124318969</v>
@@ -11787,7 +11589,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.891309030651348</v>
+        <v>1.894870562448698</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.317997240634037</v>
@@ -11876,7 +11678,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.893760564538767</v>
+        <v>1.895691018991512</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.444710902897836</v>
@@ -11965,7 +11767,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.853112706199151</v>
+        <v>1.861454636068111</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.719817098305598</v>
@@ -12054,7 +11856,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.858130305752901</v>
+        <v>1.863821976893347</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.758862072461881</v>
@@ -12143,7 +11945,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.856268018584674</v>
+        <v>1.862030430281552</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.675179231544798</v>
@@ -12232,7 +12034,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.850832379055768</v>
+        <v>1.85152685089215</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.633652880450297</v>
@@ -12321,7 +12123,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.848210875026227</v>
+        <v>1.844036406954792</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.638777086306682</v>
@@ -12410,7 +12212,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.853183245508395</v>
+        <v>1.84622926881079</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.625906992028574</v>
@@ -12499,7 +12301,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.849635390475579</v>
+        <v>1.843766855356168</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.760681630244826</v>
@@ -12588,7 +12390,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.850894895908954</v>
+        <v>1.848093164522419</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.631618804273777</v>
@@ -12677,7 +12479,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.852147396037031</v>
+        <v>1.845719015898874</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.657287502756967</v>
@@ -12766,7 +12568,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.870716939068664</v>
+        <v>1.861563943933592</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.892916146771634</v>
@@ -12855,7 +12657,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.88275031760612</v>
+        <v>1.872714716163632</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.68586477409565</v>
@@ -12944,7 +12746,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.833802086925681</v>
+        <v>1.831784674284669</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.681011243126978</v>
@@ -13033,7 +12835,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.8015868980389</v>
+        <v>1.80605758727323</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.696144040649276</v>
@@ -13122,7 +12924,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.79688462893052</v>
+        <v>1.796840246824272</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.719627153914719</v>
@@ -13211,7 +13013,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.794807519239614</v>
+        <v>1.796214536487224</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.659770827014834</v>
@@ -13300,7 +13102,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.83340973568531</v>
+        <v>1.832485256287729</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.789970654477902</v>
@@ -13389,7 +13191,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.832267264325347</v>
+        <v>1.83061039997648</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.768125951136285</v>
@@ -13478,7 +13280,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.836380794017358</v>
+        <v>1.836296805826688</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.847569614689774</v>
@@ -13567,7 +13369,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.842791676160581</v>
+        <v>1.846026422840957</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.663536158016112</v>
@@ -13656,7 +13458,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.84464027828706</v>
+        <v>1.84551374852847</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.647539530514083</v>
@@ -13745,7 +13547,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.844251517239005</v>
+        <v>1.849045993202682</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.686225022228388</v>
@@ -13834,7 +13636,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.840915906893354</v>
+        <v>1.849467827994315</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.7912615463307</v>
@@ -13923,7 +13725,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.833444565117227</v>
+        <v>1.845901733003658</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.809539581809473</v>
@@ -14012,7 +13814,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.834317036214106</v>
+        <v>1.845357525699153</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.854527470192708</v>
@@ -14101,7 +13903,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.831365347465965</v>
+        <v>1.838410789768913</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.670103090718013</v>
@@ -14190,7 +13992,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.821591812086958</v>
+        <v>1.824435332359403</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.620243879862333</v>
@@ -14279,7 +14081,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.893451903542313</v>
+        <v>1.883268422166448</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.125700593722936</v>
@@ -14368,7 +14170,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.918399155138959</v>
+        <v>1.903940541382928</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.967258478759697</v>
@@ -14457,7 +14259,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.919352260905015</v>
+        <v>1.899684844173854</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.036884812988699</v>
@@ -14546,7 +14348,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.916669276981186</v>
+        <v>1.894516882117709</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.819954165664591</v>
@@ -14635,7 +14437,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.914552566086075</v>
+        <v>1.891356445070083</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.401104980508425</v>
@@ -14724,7 +14526,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.907218898008112</v>
+        <v>1.886126527293952</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.735314944612781</v>
@@ -14813,7 +14615,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.904315180279869</v>
+        <v>1.883544301680991</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.181192744880941</v>
@@ -14902,7 +14704,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.898739653716575</v>
+        <v>1.875233732241965</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.596790543301007</v>
@@ -14991,7 +14793,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.896112722197265</v>
+        <v>1.875821067646391</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.231287888955564</v>
@@ -15080,7 +14882,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.894598509042249</v>
+        <v>1.871504671458442</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.048318463958548</v>
@@ -15169,7 +14971,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.897265628604085</v>
+        <v>1.87033524909393</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.862698581759057</v>
@@ -15258,7 +15060,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.89682969654982</v>
+        <v>1.865613543089347</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.171564354999759</v>
@@ -15347,7 +15149,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.895664759463135</v>
+        <v>1.870028411975472</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.619811428290768</v>
@@ -15436,7 +15238,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.897543622181915</v>
+        <v>1.870270732573662</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.369595681408493</v>
@@ -15525,7 +15327,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.906844474075077</v>
+        <v>1.881307856299347</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.984484535417317</v>
@@ -15614,7 +15416,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.903253618508874</v>
+        <v>1.868032459981548</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.187890317311036</v>
@@ -15900,7 +15702,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800030450686033</v>
+        <v>1.791731647526005</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.777069097462789</v>
@@ -15989,7 +15791,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.796553214643278</v>
+        <v>1.787274009473599</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.813844862516262</v>
@@ -16078,7 +15880,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.797188197730099</v>
+        <v>1.790300039309511</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.629192286964352</v>
@@ -16167,7 +15969,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.816107811352099</v>
+        <v>1.803640868908766</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.308331633359506</v>
@@ -16256,7 +16058,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.806535740426497</v>
+        <v>1.796048182928165</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.239798063904181</v>
@@ -16345,7 +16147,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.819868449001747</v>
+        <v>1.807993986856488</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.29718212473776</v>
@@ -16434,7 +16236,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.814757447520129</v>
+        <v>1.801062175617155</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.445369701904506</v>
@@ -16523,7 +16325,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.794862603959123</v>
+        <v>1.78293277777733</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.098145009317942</v>
@@ -16612,7 +16414,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.806494231024993</v>
+        <v>1.799188491736825</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.420899643121017</v>
@@ -16701,7 +16503,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.771828194435977</v>
+        <v>1.775018333106374</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.359259346328173</v>
@@ -16790,7 +16592,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.776786578945703</v>
+        <v>1.784125434247534</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.231715820611147</v>
@@ -16879,7 +16681,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.781495113030349</v>
+        <v>1.787543928769342</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.412702944045302</v>
@@ -16968,7 +16770,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.775924630411671</v>
+        <v>1.776426622368627</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.307001450577004</v>
@@ -17057,7 +16859,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.766283141835136</v>
+        <v>1.764835981482243</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.160632635835029</v>
@@ -17146,7 +16948,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.773141628810691</v>
+        <v>1.769707176798191</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.299175955766385</v>
@@ -17235,7 +17037,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.771975943290248</v>
+        <v>1.771901342030084</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.9857536628197</v>
@@ -17324,7 +17126,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.773714102347907</v>
+        <v>1.772207102623824</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.451768570886348</v>
@@ -17413,7 +17215,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.756365450035937</v>
+        <v>1.756544757082317</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.401570647530768</v>
@@ -17502,7 +17304,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.760559189205349</v>
+        <v>1.75650117338234</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.619351815687902</v>
@@ -17591,7 +17393,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755222445087357</v>
+        <v>1.747980951617035</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.194238702540928</v>
@@ -17680,7 +17482,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.744654182013682</v>
+        <v>1.744104196782659</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.39515930831901</v>
@@ -17769,7 +17571,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754732870549025</v>
+        <v>1.749318728085834</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.642609914755996</v>
@@ -17858,7 +17660,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.742143344050205</v>
+        <v>1.736334153251369</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.332972723363226</v>
@@ -17947,7 +17749,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.726326062984973</v>
+        <v>1.718230924323713</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.095639983284119</v>
@@ -18036,7 +17838,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.742589459127357</v>
+        <v>1.734002926708281</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.254691161551252</v>
@@ -18125,7 +17927,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.742795583733174</v>
+        <v>1.734765717253374</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.024339418773186</v>
@@ -18214,7 +18016,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.736086043962724</v>
+        <v>1.726848872918005</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.193754707277745</v>
@@ -18303,7 +18105,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.742981984003541</v>
+        <v>1.733879067552919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.099125893017697</v>
@@ -18392,7 +18194,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.736826230524222</v>
+        <v>1.726419461994812</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.163232631670569</v>
@@ -18481,7 +18283,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.725059478979341</v>
+        <v>1.719700571356722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.168084506128479</v>
@@ -18570,7 +18372,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.724167135198737</v>
+        <v>1.716318052704007</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.121305985873659</v>
@@ -18659,7 +18461,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.71592319188764</v>
+        <v>1.706721449367625</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.813460716822274</v>
@@ -18748,7 +18550,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.716059985074733</v>
+        <v>1.705007492349837</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.251876171500327</v>
@@ -18837,7 +18639,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.725396668747472</v>
+        <v>1.716149193545903</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.978242489931256</v>
@@ -18926,7 +18728,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.731382154449365</v>
+        <v>1.721783562163593</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.094071032002259</v>
@@ -19015,7 +18817,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.726528450394498</v>
+        <v>1.71417001867717</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.135528942086026</v>
@@ -19104,7 +18906,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.724479526007512</v>
+        <v>1.712209110075696</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.022444092467475</v>
@@ -19193,7 +18995,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.717915833483113</v>
+        <v>1.70908761756901</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.296724690753927</v>
@@ -19282,7 +19084,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.73491784245873</v>
+        <v>1.721069441874012</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.206172846553601</v>
@@ -19371,7 +19173,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.729156741079926</v>
+        <v>1.714292465229033</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.506178175707181</v>
@@ -19460,7 +19262,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.728146100567712</v>
+        <v>1.717226433194702</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.648460242530445</v>
@@ -19549,7 +19351,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.717667356780543</v>
+        <v>1.70272612119327</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.53485448650777</v>
@@ -19638,7 +19440,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.704122505342563</v>
+        <v>1.696699405886539</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.414496970059201</v>
@@ -19727,7 +19529,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.705679508242299</v>
+        <v>1.702756899409645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.182474566822274</v>
@@ -19816,7 +19618,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.697554250956021</v>
+        <v>1.693879362477991</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.385029700738848</v>
@@ -19905,7 +19707,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.686387574022517</v>
+        <v>1.684571112018143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.19548829929178</v>
@@ -19994,7 +19796,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.685813283881141</v>
+        <v>1.686849055610149</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.19451972687993</v>
@@ -20083,7 +19885,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.690589860588542</v>
+        <v>1.692319726796824</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.226115585566128</v>
@@ -20172,7 +19974,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672408185929868</v>
+        <v>1.67401457590034</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.923900729796962</v>
@@ -20261,7 +20063,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.671458263629362</v>
+        <v>1.675043144635866</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.309971807624352</v>
@@ -20350,7 +20152,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.679076263797584</v>
+        <v>1.684148225132378</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.254010190214013</v>
@@ -20439,7 +20241,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.687389136268687</v>
+        <v>1.693937869682396</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.223805369613283</v>
@@ -20528,7 +20330,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.704471788144594</v>
+        <v>1.708126099873385</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.206084687741712</v>
@@ -20617,7 +20419,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.710626939400215</v>
+        <v>1.714692230955372</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.437753505889014</v>
@@ -20706,7 +20508,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.700181996103846</v>
+        <v>1.703990912900869</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.180777599849282</v>
@@ -20795,7 +20597,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.703418211376778</v>
+        <v>1.708178130237031</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.386447006673982</v>
@@ -20884,7 +20686,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.705646422174199</v>
+        <v>1.71278794327497</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.227595281200291</v>
@@ -20973,7 +20775,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.708284303476987</v>
+        <v>1.714606185334695</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.197561171545032</v>
@@ -21062,7 +20864,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.713034832002123</v>
+        <v>1.716243035867206</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.972860283753724</v>
@@ -21151,7 +20953,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714209914854661</v>
+        <v>1.713340889337595</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.198305889137692</v>
@@ -21240,7 +21042,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.727039843837367</v>
+        <v>1.723253935139248</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.436471469642328</v>
@@ -21329,7 +21131,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.730075272877017</v>
+        <v>1.725775493051759</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.25575342905042</v>
@@ -21418,7 +21220,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.736241414263286</v>
+        <v>1.729910856216282</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.30272254693231</v>
@@ -21507,7 +21309,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.750790132390649</v>
+        <v>1.742599907229781</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.282019739255896</v>
@@ -21596,7 +21398,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.761570409595558</v>
+        <v>1.749279960546568</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.523786308664713</v>
@@ -21685,7 +21487,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.754826324560838</v>
+        <v>1.738130166535565</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.421113969071175</v>
@@ -21774,7 +21576,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.741682569692746</v>
+        <v>1.722369986948691</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.205299726337092</v>
@@ -21863,7 +21665,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.698820541874389</v>
+        <v>1.685548236321495</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.666668475718512</v>
@@ -21952,7 +21754,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.689945901756293</v>
+        <v>1.681500375062278</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.668575113813337</v>
@@ -22041,7 +21843,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.70926550096529</v>
+        <v>1.697238964706718</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.68620318295343</v>
@@ -22130,7 +21932,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.714049259739099</v>
+        <v>1.696993382131906</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.710077586498442</v>
@@ -22219,7 +22021,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.69926246781985</v>
+        <v>1.683401931111435</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.615461230215901</v>
@@ -22308,7 +22110,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.709511513236585</v>
+        <v>1.697629596268632</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.705394314388751</v>
@@ -22397,7 +22199,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.697951684465478</v>
+        <v>1.689780500788325</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.662583339141026</v>
@@ -22486,7 +22288,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.693539931172441</v>
+        <v>1.688185293084705</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.72594410401657</v>
@@ -22575,7 +22377,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.684824874952386</v>
+        <v>1.684510209039227</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.714380433804948</v>
@@ -22861,7 +22663,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.790414256843518</v>
+        <v>1.791462276524109</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.200163391402242</v>
@@ -22950,7 +22752,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.800462667924515</v>
+        <v>1.794845317175587</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.007842590195945</v>
@@ -23039,7 +22841,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.807582671420008</v>
+        <v>1.803752876468016</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.365953936326442</v>
@@ -23128,7 +22930,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.803818476140231</v>
+        <v>1.807243492141809</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.418500952007861</v>
@@ -23217,7 +23019,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.792517512525296</v>
+        <v>1.806799202690164</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.791573094621091</v>
@@ -23306,7 +23108,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.781498798038903</v>
+        <v>1.797550050272034</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.880366031068999</v>
@@ -23395,7 +23197,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.781556595972942</v>
+        <v>1.797241332856042</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.796118346978863</v>
@@ -23484,7 +23286,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.804706123926014</v>
+        <v>1.817490495171422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.816544561005764</v>
@@ -23573,7 +23375,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.81239267636777</v>
+        <v>1.827280628227117</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.878560158486168</v>
@@ -23662,7 +23464,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.771641219173973</v>
+        <v>1.790379750154709</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.647498085957906</v>
@@ -23751,7 +23553,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.7774847669438</v>
+        <v>1.795714064693699</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.627755495086682</v>
@@ -23840,7 +23642,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.775706197998416</v>
+        <v>1.794211575366538</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.78243913794172</v>
@@ -23929,7 +23731,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.765210923281132</v>
+        <v>1.783010149307823</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.653594644282751</v>
@@ -24018,7 +23820,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.741506630787196</v>
+        <v>1.76434150326137</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.715298690854303</v>
@@ -24107,7 +23909,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.742927409809491</v>
+        <v>1.767425345802672</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.777906795320989</v>
@@ -24196,7 +23998,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.746748362084889</v>
+        <v>1.766954166256599</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.655196557872868</v>
@@ -24285,7 +24087,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.749665549606004</v>
+        <v>1.769949845465756</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.716416571581903</v>
@@ -24374,7 +24176,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.741209789036912</v>
+        <v>1.761427223720669</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.716338281987636</v>
@@ -24463,7 +24265,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.741623099281209</v>
+        <v>1.757090933122699</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.670896278465456</v>
@@ -24552,7 +24354,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.775801271179427</v>
+        <v>1.781167932278544</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.304825056578271</v>
@@ -24641,7 +24443,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.786306553844027</v>
+        <v>1.786958045408246</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.319682059317975</v>
@@ -24730,7 +24532,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.76529106937286</v>
+        <v>1.772204353293463</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.319999783881478</v>
@@ -24819,7 +24621,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.761456841050128</v>
+        <v>1.764432867235014</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.322073275725055</v>
@@ -24908,7 +24710,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.710888329780892</v>
+        <v>1.720688129679254</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.800640469242795</v>
@@ -24997,7 +24799,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.737997629635381</v>
+        <v>1.749003685012168</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.757179956066206</v>
@@ -25086,7 +24888,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.709162583947637</v>
+        <v>1.727532652190624</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.754719704087581</v>
@@ -25175,7 +24977,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708731245683024</v>
+        <v>1.727936896300638</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.685043129515607</v>
@@ -25264,7 +25066,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.710341749742714</v>
+        <v>1.72639623548392</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.57394817101787</v>
@@ -25353,7 +25155,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686691869494853</v>
+        <v>1.708412321153036</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.613815455211324</v>
@@ -25442,7 +25244,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.647428820732703</v>
+        <v>1.675041206377068</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.746036735454108</v>
@@ -25531,7 +25333,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.648171545644929</v>
+        <v>1.674972039730154</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.615110233872602</v>
@@ -25620,7 +25422,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.649156779002921</v>
+        <v>1.680189294753155</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.728660048996836</v>
@@ -25709,7 +25511,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.658705303942134</v>
+        <v>1.688117641293947</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.718675130138541</v>
@@ -25798,7 +25600,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666310622213781</v>
+        <v>1.692863711987894</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.685641952531348</v>
@@ -25887,7 +25689,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.650766283122429</v>
+        <v>1.683457314559077</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.794183639281566</v>
@@ -25976,7 +25778,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645473645652864</v>
+        <v>1.679953926083422</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.831255551804308</v>
@@ -26065,7 +25867,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657214941965914</v>
+        <v>1.686908293164064</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.755476866209101</v>
@@ -26154,7 +25956,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.654983795097134</v>
+        <v>1.682408951268271</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.588085659380773</v>
@@ -26243,7 +26045,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689491637558992</v>
+        <v>1.709232383137768</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.55960392479965</v>
@@ -26332,7 +26134,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.696833861170977</v>
+        <v>1.710403245244493</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.58687655310911</v>
@@ -26421,7 +26223,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.714457180621219</v>
+        <v>1.720468275290014</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.850485662028358</v>
@@ -26510,7 +26312,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.714845386656544</v>
+        <v>1.717044607862438</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.844124403506765</v>
@@ -26599,7 +26401,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.739176368781017</v>
+        <v>1.735797279239692</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.325213028648837</v>
@@ -26688,7 +26490,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.770183676305932</v>
+        <v>1.765338369201305</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.62983691682297</v>
@@ -26777,7 +26579,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.811376920241132</v>
+        <v>1.794002780418594</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.94835589170778</v>
@@ -26866,7 +26668,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.808802285625921</v>
+        <v>1.791835351900771</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.522033926775112</v>
@@ -26955,7 +26757,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.804941424477965</v>
+        <v>1.788702577309143</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.520169224125013</v>
@@ -27044,7 +26846,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.799653810246524</v>
+        <v>1.785936568206792</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.262578988578067</v>
@@ -27133,7 +26935,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.776348542589376</v>
+        <v>1.769526142564414</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.194107447737134</v>
@@ -27222,7 +27024,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.804078288866506</v>
+        <v>1.789725729723823</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.350465502109422</v>
@@ -27311,7 +27113,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.811104073727393</v>
+        <v>1.794814908298352</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.710278316311015</v>
@@ -27400,7 +27202,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.813557110808548</v>
+        <v>1.796444564825697</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.221141332656271</v>
@@ -27489,7 +27291,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.817105844028889</v>
+        <v>1.803438967789693</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.427474223743197</v>
@@ -27578,7 +27380,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.81939234739387</v>
+        <v>1.808119601779648</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.521839985929533</v>
@@ -27667,7 +27469,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.819190025396437</v>
+        <v>1.808472477103417</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.679846106613615</v>
@@ -27756,7 +27558,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.819992124461403</v>
+        <v>1.8108554667618</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.46863230395869</v>
@@ -27845,7 +27647,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.817110099827485</v>
+        <v>1.809925945097496</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.569519232649581</v>
@@ -27934,7 +27736,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.786019216071953</v>
+        <v>1.782656700336184</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.205146244389517</v>
@@ -28023,7 +27825,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.789746177858156</v>
+        <v>1.787474738963302</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.095441166844362</v>
@@ -28112,7 +27914,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.785221720780235</v>
+        <v>1.782346268768049</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.116063279289847</v>
@@ -28201,7 +28003,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.791903056156881</v>
+        <v>1.787306519279224</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.930252946248333</v>
@@ -28290,7 +28092,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.791177031266271</v>
+        <v>1.787790749223979</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.191677809066714</v>
@@ -28379,7 +28181,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.798582575938261</v>
+        <v>1.790602416415787</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.98581849843826</v>
@@ -28468,7 +28270,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.809347193925397</v>
+        <v>1.798499370921263</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.188825723919162</v>
@@ -28557,7 +28359,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.786602528729001</v>
+        <v>1.781913124143381</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.201882565150576</v>
@@ -28646,7 +28448,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.780184666151306</v>
+        <v>1.77544056569452</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.104733739585277</v>
@@ -28735,7 +28537,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.7687895605796</v>
+        <v>1.764002142683941</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.980599719567537</v>
@@ -28824,7 +28626,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.751178280373799</v>
+        <v>1.750659092386935</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.262829271646939</v>
@@ -28913,7 +28715,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.749061872372321</v>
+        <v>1.749156171684622</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.215093259034004</v>
@@ -29002,7 +28804,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.729150226861115</v>
+        <v>1.734147005252938</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.226514044580624</v>
@@ -29091,7 +28893,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.717826690596875</v>
+        <v>1.724311532388341</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.141527748581335</v>
@@ -29180,7 +28982,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.703115821377344</v>
+        <v>1.707816251781791</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.009209019465374</v>
@@ -29269,7 +29071,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.723185561623685</v>
+        <v>1.724465386362101</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.073632284289239</v>
@@ -29358,7 +29160,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.718380509513725</v>
+        <v>1.721921528825335</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.210343206667585</v>
@@ -29447,7 +29249,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.711800552875515</v>
+        <v>1.718145861778535</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.241591109469203</v>
@@ -29536,7 +29338,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.696229851830626</v>
+        <v>1.698378301995046</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.880344285272687</v>
@@ -29822,7 +29624,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.839296865282169</v>
+        <v>1.818219575195924</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.525447764287953</v>
@@ -29911,7 +29713,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.847937983730868</v>
+        <v>1.82498878020251</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.304249505869315</v>
@@ -30000,7 +29802,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.847829994332386</v>
+        <v>1.824235523484255</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.583889098980841</v>
@@ -30089,7 +29891,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.858162540760437</v>
+        <v>1.831179640855231</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.769387946619511</v>
@@ -30178,7 +29980,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.874267230938114</v>
+        <v>1.846388066169389</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.724217175968145</v>
@@ -30267,7 +30069,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.88179602966587</v>
+        <v>1.852195688929801</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.507982683848863</v>
@@ -30356,7 +30158,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.885608075665735</v>
+        <v>1.857030275982545</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.512817614643966</v>
@@ -30445,7 +30247,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.900682268674964</v>
+        <v>1.869217545416143</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.950251691551245</v>
@@ -30534,7 +30336,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.908301543926858</v>
+        <v>1.875337923417397</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.18249505157011</v>
@@ -30623,7 +30425,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.89739436639525</v>
+        <v>1.871965837130463</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.751287433927326</v>
@@ -30712,7 +30514,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.902322842757428</v>
+        <v>1.874636948221784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.00241652480707</v>
@@ -30801,7 +30603,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.903743369678157</v>
+        <v>1.884303628379254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.087238212593882</v>
@@ -30890,7 +30692,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.903573878606882</v>
+        <v>1.884127836292604</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.898543058652702</v>
@@ -30979,7 +30781,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.896830272655498</v>
+        <v>1.878759003204995</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.20788396319209</v>
@@ -31068,7 +30870,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.883981705942526</v>
+        <v>1.866183231925736</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.018431530446653</v>
@@ -31157,7 +30959,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.875621699115171</v>
+        <v>1.86016255377962</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.237791973426257</v>
@@ -31246,7 +31048,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.873627496581604</v>
+        <v>1.858968233498175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.108486039144009</v>
@@ -31335,7 +31137,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.874587475022117</v>
+        <v>1.860864251697073</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.401527381406305</v>
@@ -31424,7 +31226,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.863420477801097</v>
+        <v>1.854650765141953</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.451421227473457</v>
@@ -31513,7 +31315,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.863832926582016</v>
+        <v>1.856527131309781</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.281296842408301</v>
@@ -31602,7 +31404,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.860242317190417</v>
+        <v>1.849148357297067</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.072954133272579</v>
@@ -31691,7 +31493,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.856028002721954</v>
+        <v>1.842918990411339</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.198285616398759</v>
@@ -31780,7 +31582,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.854076871258611</v>
+        <v>1.839892284317656</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.916696615510695</v>
@@ -31869,7 +31671,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.857191804914283</v>
+        <v>1.836403550332862</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.086714630030661</v>
@@ -31958,7 +31760,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.847833816446623</v>
+        <v>1.824844256960395</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.222304255726426</v>
@@ -32047,7 +31849,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.84397542689483</v>
+        <v>1.822507471331059</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.125621249054831</v>
@@ -32136,7 +31938,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.837913830727947</v>
+        <v>1.812939923837058</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.573181149066436</v>
@@ -32225,7 +32027,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.845818033259119</v>
+        <v>1.818532949146284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.989242211848668</v>
@@ -32314,7 +32116,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.842665093542656</v>
+        <v>1.81582294649218</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.981465439299507</v>
@@ -32403,7 +32205,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.86127908003621</v>
+        <v>1.829729767862698</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.324558007315705</v>
@@ -32492,7 +32294,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.868226496453006</v>
+        <v>1.834111006488937</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.535465743540006</v>
@@ -32581,7 +32383,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.854389624082389</v>
+        <v>1.829234613853673</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.504081050637442</v>
@@ -32670,7 +32472,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.848794418321257</v>
+        <v>1.824224599413696</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.936025152064967</v>
@@ -32759,7 +32561,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.845458214559629</v>
+        <v>1.825656025589055</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.588458043997575</v>
@@ -32848,7 +32650,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.84124580075809</v>
+        <v>1.820091931312889</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.577885573913602</v>
@@ -32937,7 +32739,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.844964701622418</v>
+        <v>1.827816346023397</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.65173114848818</v>
@@ -33026,7 +32828,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.850844402409364</v>
+        <v>1.834726408504518</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.626579344882696</v>
@@ -33115,7 +32917,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.850727014718433</v>
+        <v>1.835661901134002</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.528774900296431</v>
@@ -33204,7 +33006,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.840434741995955</v>
+        <v>1.828933278382217</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.466856105237867</v>
@@ -33293,7 +33095,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.852867330620963</v>
+        <v>1.83956992765296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.601973127384913</v>
@@ -33382,7 +33184,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.852886387899069</v>
+        <v>1.838278878556985</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.773481894253427</v>
@@ -33471,7 +33273,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.85476912723827</v>
+        <v>1.842015664774509</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.591251647084491</v>
@@ -33560,7 +33362,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.851148893172202</v>
+        <v>1.835296038914697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.864209406147664</v>
@@ -33649,7 +33451,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.858074240220353</v>
+        <v>1.84567675838729</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.223819550353916</v>
@@ -33738,7 +33540,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.860027953989055</v>
+        <v>1.848223297274829</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.781123931877707</v>
@@ -33827,7 +33629,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.847766770231184</v>
+        <v>1.841180757081082</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.090242954937828</v>
@@ -33916,7 +33718,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.840656810436362</v>
+        <v>1.833857403806479</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.323548153342185</v>
@@ -34005,7 +33807,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.841170541902161</v>
+        <v>1.830792560196934</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.242115049247777</v>
@@ -34094,7 +33896,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.841019161480741</v>
+        <v>1.829326224600568</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.257815604279761</v>
@@ -34183,7 +33985,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.837946259269765</v>
+        <v>1.831997474208248</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.806945476462339</v>
@@ -34272,7 +34074,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.835399804407731</v>
+        <v>1.83177161989612</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.351685815496623</v>
@@ -34361,7 +34163,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.830234764874616</v>
+        <v>1.826093390986147</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.003654812919157</v>
@@ -34450,7 +34252,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.8269284321108</v>
+        <v>1.82835311188583</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.864169231270276</v>
@@ -34539,7 +34341,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.841940945780988</v>
+        <v>1.842561064757584</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.516168182147724</v>
@@ -34628,7 +34430,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.842060017658216</v>
+        <v>1.841280297198579</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.709642076612373</v>
@@ -34717,7 +34519,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.837181107667936</v>
+        <v>1.841788785264569</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.860023443686959</v>
@@ -34806,7 +34608,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.834111948763935</v>
+        <v>1.836913596940215</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.318389557296106</v>
@@ -34895,7 +34697,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.82998499016286</v>
+        <v>1.834864173832707</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.892055732299864</v>
@@ -34984,7 +34786,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.831596640353927</v>
+        <v>1.831855158667119</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.007104882170199</v>
@@ -35073,7 +34875,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.820288619277394</v>
+        <v>1.808892437510524</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.761074942905968</v>
@@ -35162,7 +34964,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.823924424836165</v>
+        <v>1.813332891202988</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.297910546856508</v>
@@ -35251,7 +35053,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.843130836741359</v>
+        <v>1.82981136016054</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.731349101375927</v>
@@ -35340,7 +35142,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.846944422415855</v>
+        <v>1.828601327842744</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.647064725160077</v>
@@ -35429,7 +35231,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.855883632300022</v>
+        <v>1.83827808197232</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.882420454727276</v>
@@ -35518,7 +35320,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.863155143014423</v>
+        <v>1.83926811886034</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.352944798190639</v>
@@ -35607,7 +35409,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.860433971599902</v>
+        <v>1.833862155526995</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.689874162701564</v>
@@ -35696,7 +35498,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.863128859340861</v>
+        <v>1.831913495250806</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.690882587485961</v>
@@ -35785,7 +35587,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.858514886704734</v>
+        <v>1.823440028178947</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.650259097015576</v>
@@ -35874,7 +35676,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.846882047714775</v>
+        <v>1.812263086156565</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.812115732283375</v>
@@ -35963,7 +35765,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.832040715204444</v>
+        <v>1.797372675055388</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.605555162403369</v>
@@ -36052,7 +35854,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.831655453170382</v>
+        <v>1.788906552577678</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.730651153227472</v>
@@ -36141,7 +35943,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.831868369052631</v>
+        <v>1.788280459355931</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.767817445428372</v>
@@ -36230,7 +36032,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.829115373051323</v>
+        <v>1.788064849932927</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.674304069695624</v>
@@ -36319,7 +36121,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.833446332095758</v>
+        <v>1.791045543447341</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.291572217091097</v>
@@ -36408,7 +36210,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.841704365659719</v>
+        <v>1.796945030832335</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.327719007003591</v>
@@ -36497,7 +36299,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.831775954776181</v>
+        <v>1.783559570993856</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.929146482550208</v>
@@ -36783,7 +36585,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.726204669012692</v>
+        <v>1.743083266232911</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.614528746965406</v>
@@ -36872,7 +36674,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.730097891693886</v>
+        <v>1.742934318559529</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.353772288598181</v>
@@ -36961,7 +36763,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.726143586161661</v>
+        <v>1.741430008647261</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.347757204924475</v>
@@ -37050,7 +36852,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.70602048932887</v>
+        <v>1.72466851706716</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.127190560434645</v>
@@ -37139,7 +36941,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.717449734988935</v>
+        <v>1.730140255945083</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.110992336270884</v>
@@ -37228,7 +37030,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745287427093109</v>
+        <v>1.750880982611711</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.282669051941785</v>
@@ -37317,7 +37119,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.731869372640315</v>
+        <v>1.740417853248562</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.486310822988887</v>
@@ -37406,7 +37208,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.738563776588428</v>
+        <v>1.747715180212486</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.220955227233137</v>
@@ -37495,7 +37297,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.752590529365612</v>
+        <v>1.760665646264012</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.610571045143213</v>
@@ -37584,7 +37386,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.731946477109301</v>
+        <v>1.732329356520595</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.926168066732766</v>
@@ -37673,7 +37475,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.729956482986253</v>
+        <v>1.73486556597127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.005277573476593</v>
@@ -37762,7 +37564,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.714935225790835</v>
+        <v>1.716593293895467</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.10530485673478</v>
@@ -37851,7 +37653,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.712637691959748</v>
+        <v>1.717123604308052</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.854936611324074</v>
@@ -37940,7 +37742,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.710270116065822</v>
+        <v>1.714084327515732</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.319008282875629</v>
@@ -38029,7 +37831,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.710080394287448</v>
+        <v>1.713224279646222</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.057891928281043</v>
@@ -38118,7 +37920,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.709964338709641</v>
+        <v>1.71228664330629</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.140269129920349</v>
@@ -38207,7 +38009,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708946721870574</v>
+        <v>1.712447290220318</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.332023419280115</v>
@@ -38296,7 +38098,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.693572904691082</v>
+        <v>1.697790087971849</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.002998358758661</v>
@@ -38385,7 +38187,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.705093900330108</v>
+        <v>1.705133672621954</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.181832998455352</v>
@@ -38474,7 +38276,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705067070084377</v>
+        <v>1.702820919795064</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.281522945918135</v>
@@ -38563,7 +38365,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.678215325466151</v>
+        <v>1.682705127547618</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.046983286013799</v>
@@ -38652,7 +38454,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.687699001859188</v>
+        <v>1.68939177466877</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.943468658264479</v>
@@ -38741,7 +38543,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.674195547183169</v>
+        <v>1.673418023179364</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.176864120003481</v>
@@ -38830,7 +38632,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.667742148197603</v>
+        <v>1.66761010493994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.866121929133761</v>
@@ -38919,7 +38721,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.665260347066363</v>
+        <v>1.675478335155699</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.109331729210795</v>
@@ -39008,7 +38810,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.680233645393203</v>
+        <v>1.683386790929385</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.120884905466906</v>
@@ -39097,7 +38899,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.687674416539928</v>
+        <v>1.691680542238964</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.136399008611937</v>
@@ -39186,7 +38988,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.689496075791877</v>
+        <v>1.691911250499307</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.123355886941208</v>
@@ -39275,7 +39077,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682692295584016</v>
+        <v>1.686182261410114</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.128296254372124</v>
@@ -39364,7 +39166,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.671911587571661</v>
+        <v>1.670784979228874</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.131018096197423</v>
@@ -39453,7 +39255,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660933655949856</v>
+        <v>1.665277568700698</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.128115443454134</v>
@@ -39542,7 +39344,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.662994343864278</v>
+        <v>1.665043434488038</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.851033058918217</v>
@@ -39631,7 +39433,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672910758711562</v>
+        <v>1.678795884354167</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.130435131989777</v>
@@ -39720,7 +39522,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.673906178938101</v>
+        <v>1.680777020039746</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.136629171181203</v>
@@ -39809,7 +39611,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.659866229069695</v>
+        <v>1.670939026217884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.885154174204329</v>
@@ -39898,7 +39700,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680399815222642</v>
+        <v>1.683805124537488</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.25628929818799</v>
@@ -39987,7 +39789,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.672957287934447</v>
+        <v>1.674709956402504</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.100611536641119</v>
@@ -40076,7 +39878,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.674161785725474</v>
+        <v>1.677950953097473</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.934171569192205</v>
@@ -40165,7 +39967,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.695643470842272</v>
+        <v>1.692825587354003</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.749396669330698</v>
@@ -40254,7 +40056,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.69934739835486</v>
+        <v>1.696703648299826</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.567399013099072</v>
@@ -40343,7 +40145,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.703119425383287</v>
+        <v>1.697685936866122</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.587880648555316</v>
@@ -40432,7 +40234,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708129774570151</v>
+        <v>1.701222706341068</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.610063879859586</v>
@@ -40521,7 +40323,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.689173073580006</v>
+        <v>1.68380016520153</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.237857617409362</v>
@@ -40610,7 +40412,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.690796801507427</v>
+        <v>1.688123417187001</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.378963472451594</v>
@@ -40699,7 +40501,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.683309302849421</v>
+        <v>1.685123928647591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.071380670473624</v>
@@ -40788,7 +40590,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691372713592456</v>
+        <v>1.689677588572164</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.383948582679615</v>
@@ -40877,7 +40679,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.688132730312282</v>
+        <v>1.684009096687709</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.841706786883806</v>
@@ -40966,7 +40768,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680551405818642</v>
+        <v>1.675777782559194</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.29273398511476</v>
@@ -41055,7 +40857,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.675754056204231</v>
+        <v>1.670736904579631</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.050904299261954</v>
@@ -41144,7 +40946,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.682009957397374</v>
+        <v>1.674171339238533</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.080376361007762</v>
@@ -41233,7 +41035,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.669227277992795</v>
+        <v>1.665215354070065</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.078614278184025</v>
@@ -41322,7 +41124,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67940919025352</v>
+        <v>1.673460910801223</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.718571156122476</v>
@@ -41411,7 +41213,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.676511795387569</v>
+        <v>1.665828866175862</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.245058960400878</v>
@@ -41500,7 +41302,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.669725069270734</v>
+        <v>1.657863015443524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.889055964443641</v>
@@ -41589,7 +41391,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.663467753775412</v>
+        <v>1.653379342402845</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.018786027739615</v>
@@ -41678,7 +41480,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.658533954710549</v>
+        <v>1.651716200893401</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.017154068249829</v>
@@ -41767,7 +41569,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.644082684503555</v>
+        <v>1.639277976821003</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.934667759282258</v>
@@ -41856,7 +41658,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.662686472136506</v>
+        <v>1.653131643479982</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.759318972501388</v>
@@ -41945,7 +41747,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.64868218575176</v>
+        <v>1.640705824149157</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.94635511576749</v>
@@ -42034,7 +41836,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.646712150392347</v>
+        <v>1.635786112372459</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.144082982734645</v>
@@ -42123,7 +41925,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.642943842143238</v>
+        <v>1.628456491193607</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.054568057480038</v>
@@ -42212,7 +42014,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.650382972844491</v>
+        <v>1.63884767866551</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.248062751371193</v>
@@ -42301,7 +42103,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.643236754000737</v>
+        <v>1.629153630359511</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.039686750799943</v>
@@ -42390,7 +42192,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.633205965687231</v>
+        <v>1.618857329844477</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.275442456888439</v>
@@ -42479,7 +42281,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.643927091356201</v>
+        <v>1.628945430162836</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.149202293409149</v>
@@ -42568,7 +42370,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.644500680499866</v>
+        <v>1.631163193120921</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.54994903373474</v>
@@ -42657,7 +42459,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.634186003756714</v>
+        <v>1.616167025658812</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.348637285405801</v>
@@ -42746,7 +42548,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.633171115664962</v>
+        <v>1.615290281672501</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.564016213558668</v>
@@ -42835,7 +42637,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.631911712255526</v>
+        <v>1.616620760888314</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.550805939239515</v>
@@ -42924,7 +42726,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.636013180016197</v>
+        <v>1.617258232964362</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.495507104995832</v>
@@ -43013,7 +42815,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.623244598977029</v>
+        <v>1.609020281783492</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.096173653996789</v>
@@ -43102,7 +42904,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.615607843092737</v>
+        <v>1.600987931354726</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.40430461565605</v>
@@ -43191,7 +42993,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.598475222242302</v>
+        <v>1.588358822847657</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.970242485853883</v>
@@ -43280,7 +43082,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.604206320920099</v>
+        <v>1.597534972843967</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.182146544922571</v>
@@ -43369,7 +43171,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.60177038726725</v>
+        <v>1.596344837546059</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.045374632244909</v>
@@ -43458,7 +43260,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.597530162408822</v>
+        <v>1.589247137370931</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.362267291453658</v>
@@ -43744,7 +43546,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.80270112566481</v>
+        <v>1.820973917746947</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.141007812854631</v>
@@ -43833,7 +43635,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.816236851151931</v>
+        <v>1.82804968862634</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.839022903161177</v>
@@ -43922,7 +43724,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.818330216889218</v>
+        <v>1.826740665154162</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.043146719929473</v>
@@ -44011,7 +43813,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.825552159794102</v>
+        <v>1.835898622912608</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.942556911106365</v>
@@ -44100,7 +43902,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.855512222742204</v>
+        <v>1.859061162001614</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.190468100988156</v>
@@ -44189,7 +43991,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.858200890918929</v>
+        <v>1.857095132724815</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.699531724960187</v>
@@ -44278,7 +44080,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.859456576039224</v>
+        <v>1.85523998957644</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.570933820238936</v>
@@ -44367,7 +44169,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.880523658534504</v>
+        <v>1.874068441774381</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.005608874328593</v>
@@ -44456,7 +44258,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.869423619613929</v>
+        <v>1.872170519073701</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.341260405513515</v>
@@ -44545,7 +44347,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.838358408120428</v>
+        <v>1.843296805422252</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.480039746676116</v>
@@ -44634,7 +44436,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.839804805866129</v>
+        <v>1.848326901986789</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.303141119909395</v>
@@ -44723,7 +44525,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.84409133719753</v>
+        <v>1.85356131108625</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.354734448588482</v>
@@ -44812,7 +44614,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.83643531191439</v>
+        <v>1.849660475434543</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.147029118528812</v>
@@ -44901,7 +44703,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.836214660067408</v>
+        <v>1.849637990311044</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.226604278240794</v>
@@ -44990,7 +44792,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.839930529503051</v>
+        <v>1.852236359683788</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.297266910597503</v>
@@ -45079,7 +44881,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.849133989019056</v>
+        <v>1.859307454613924</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.009229209648754</v>
@@ -45168,7 +44970,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.850670771486837</v>
+        <v>1.864814387458655</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.707100634943683</v>
@@ -45257,7 +45059,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.854971829905769</v>
+        <v>1.870410187856403</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.173630699359148</v>
@@ -45346,7 +45148,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.858950483801624</v>
+        <v>1.874329672879034</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.560458034107274</v>
@@ -45435,7 +45237,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.857122674057143</v>
+        <v>1.869294998243452</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.866013974110782</v>
@@ -45524,7 +45326,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.854479324079132</v>
+        <v>1.866352425038446</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.573901865721391</v>
@@ -45613,7 +45415,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.849779797260233</v>
+        <v>1.861756217769038</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.598563407090933</v>
@@ -45702,7 +45504,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.853122656932347</v>
+        <v>1.861835116843403</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.224022033282355</v>
@@ -45791,7 +45593,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.857214398287132</v>
+        <v>1.861881794452541</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.221137368657485</v>
@@ -45880,7 +45682,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.879433484242748</v>
+        <v>1.877380525360971</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.219293222376998</v>
@@ -45969,7 +45771,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.873203351457231</v>
+        <v>1.864925253027918</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.506243164530135</v>
@@ -46058,7 +45860,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.869273805844097</v>
+        <v>1.856254811719949</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.536938129422166</v>
@@ -46147,7 +45949,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.875920378880061</v>
+        <v>1.860664995129883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.680073999349588</v>
@@ -46236,7 +46038,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.869084095893568</v>
+        <v>1.858737282320044</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.739958577126128</v>
@@ -46325,7 +46127,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.874279590678052</v>
+        <v>1.863267695015425</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.522877884325761</v>
@@ -46414,7 +46216,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.871002255237081</v>
+        <v>1.861282618914111</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.231932047158991</v>
@@ -46503,7 +46305,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.873969872049988</v>
+        <v>1.860007251525618</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.555873171766716</v>
@@ -46592,7 +46394,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.872089985871117</v>
+        <v>1.858073746537372</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.5677767405941</v>
@@ -46681,7 +46483,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.844962155283741</v>
+        <v>1.840027917300702</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.333188430814815</v>
@@ -46770,7 +46572,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.825634596767843</v>
+        <v>1.828587218550567</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.344638338746806</v>
@@ -46859,7 +46661,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.834804066346155</v>
+        <v>1.838109158510158</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.523082853067376</v>
@@ -46948,7 +46750,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.830324118011989</v>
+        <v>1.832978663026904</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.668477427413142</v>
@@ -47037,7 +46839,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.827217319471793</v>
+        <v>1.830792538781806</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.294697838673379</v>
@@ -47126,7 +46928,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.829378549921224</v>
+        <v>1.830033429076105</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.440612638029811</v>
@@ -47215,7 +47017,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.832438705333869</v>
+        <v>1.835711409018713</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.585028171500706</v>
@@ -47304,7 +47106,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.838895682549264</v>
+        <v>1.845262852658172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.694819198135338</v>
@@ -47393,7 +47195,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.837259768822882</v>
+        <v>1.846124073475851</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.757314796201576</v>
@@ -47482,7 +47284,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.835556179169605</v>
+        <v>1.841021135791464</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.753452955854716</v>
@@ -47571,7 +47373,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.843838389925167</v>
+        <v>1.850048915656256</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.431047051292565</v>
@@ -47660,7 +47462,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.848620701312592</v>
+        <v>1.853448040573356</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.349082612557309</v>
@@ -47749,7 +47551,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.832670490556809</v>
+        <v>1.840279896887805</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.5254220945961</v>
@@ -47838,7 +47640,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.824215882039929</v>
+        <v>1.833388858828025</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.455556291290145</v>
@@ -47927,7 +47729,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.819318343335334</v>
+        <v>1.830625979855942</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.170265685011349</v>
@@ -48016,7 +47818,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.841057216465419</v>
+        <v>1.845662334451947</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.279501429346204</v>
@@ -48105,7 +47907,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.858871993445265</v>
+        <v>1.85895231739212</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.548520037327614</v>
@@ -48194,7 +47996,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.850280979432911</v>
+        <v>1.859753150256541</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.475138252846916</v>
@@ -48283,7 +48085,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.852177671412071</v>
+        <v>1.858885827781297</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.531677101437328</v>
@@ -48372,7 +48174,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.847307431788943</v>
+        <v>1.857230420349775</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.302099592754455</v>
@@ -48461,7 +48263,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.846812755040168</v>
+        <v>1.858204823584085</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.314932929274889</v>
@@ -48550,7 +48352,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.838851608927855</v>
+        <v>1.853922190477879</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.293470300535211</v>
@@ -48639,7 +48441,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.832458048850799</v>
+        <v>1.850965721739268</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.121391068786133</v>
@@ -48728,7 +48530,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.835780817453188</v>
+        <v>1.854553584457382</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.509352815764575</v>
@@ -48817,7 +48619,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.838125442799468</v>
+        <v>1.858432982966905</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.061709800670559</v>
@@ -48906,7 +48708,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.833077617450861</v>
+        <v>1.854046893919225</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.365421660930781</v>
@@ -48995,7 +48797,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.820047687043659</v>
+        <v>1.839310158208566</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.217511098125499</v>
@@ -49084,7 +48886,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.846231788740255</v>
+        <v>1.860393429511517</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.799870682370798</v>
@@ -49173,7 +48975,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.853274811442988</v>
+        <v>1.866288406345579</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.897019209645269</v>
@@ -49262,7 +49064,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.851195480152609</v>
+        <v>1.863770421064101</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.352124823687287</v>
@@ -49351,7 +49153,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.845971391839865</v>
+        <v>1.855324888202975</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.041118035545814</v>
@@ -49440,7 +49242,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.848768552600042</v>
+        <v>1.859310351497911</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.751335612529417</v>
@@ -49529,7 +49331,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.852114345179312</v>
+        <v>1.856121026659176</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.48752608866268</v>
@@ -49618,7 +49420,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.854830682501892</v>
+        <v>1.859276577891187</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.483944456386897</v>
@@ -49707,7 +49509,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.85521294396628</v>
+        <v>1.847197514020702</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.233362123108655</v>
@@ -49796,7 +49598,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.850450571345466</v>
+        <v>1.843017137902582</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.483449591997618</v>
@@ -49885,7 +49687,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.851726296195526</v>
+        <v>1.840461337979489</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.530429087939401</v>
@@ -49974,7 +49776,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.84572619525149</v>
+        <v>1.831822705881412</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.535587505098641</v>
@@ -50063,7 +49865,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.831883375173059</v>
+        <v>1.814410818533667</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.071209855952479</v>
@@ -50152,7 +49954,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.829767619876416</v>
+        <v>1.811689381842818</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.91878928288263</v>
@@ -50241,7 +50043,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.833417865310925</v>
+        <v>1.808603540698501</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.502089487039809</v>
@@ -50330,7 +50132,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.830702228694206</v>
+        <v>1.805620614459819</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.903014067296883</v>
@@ -50419,7 +50221,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.806260740843062</v>
+        <v>1.788315090600251</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.905323431850635</v>
